--- a/table_06.xlsx
+++ b/table_06.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Personal)\GitHub\data_foodbook\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02F65B6-47DA-4E74-A087-BA8DDEE5523E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B81BAA9-D9CE-4978-8262-B2875D7D28AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{736CA3FA-5D45-4491-AC6E-73867E794A27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{736CA3FA-5D45-4491-AC6E-73867E794A27}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="3" r:id="rId1"/>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="310">
   <si>
     <t>BC</t>
   </si>
@@ -76,9 +71,6 @@
   </si>
   <si>
     <t>Canada</t>
-  </si>
-  <si>
-    <t>Note: s = greater than 0, less than 0.05. If there is a '0.0' value without an 's', value is exactly 0</t>
   </si>
   <si>
     <t>Any beef (not including deli-meat)</t>
@@ -1320,9 +1312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD47B0C6-AAF0-40D9-8BF0-16171E7CE9EF}">
   <dimension ref="A1:Q244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K232" sqref="K232"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1347,13 +1337,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" t="s">
         <v>308</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>309</v>
-      </c>
-      <c r="C1" t="s">
-        <v>310</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1400,13 +1390,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
       </c>
       <c r="D2">
         <v>75.900000000000006</v>
@@ -1453,13 +1443,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>22</v>
@@ -1506,13 +1496,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>30.6</v>
@@ -1559,13 +1549,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>42.8</v>
@@ -1612,13 +1602,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>12.2</v>
@@ -1665,13 +1655,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>37.700000000000003</v>
@@ -1718,13 +1708,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
       </c>
       <c r="D8">
         <v>86.3</v>
@@ -1771,13 +1761,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>28.7</v>
@@ -1824,13 +1814,13 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>38.299999999999997</v>
@@ -1877,13 +1867,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>53.9</v>
@@ -1930,13 +1920,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>37.9</v>
@@ -1983,13 +1973,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>23</v>
@@ -2036,13 +2026,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>49.3</v>
@@ -2089,13 +2079,13 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
       </c>
       <c r="D15">
         <v>32</v>
@@ -2142,13 +2132,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
       </c>
       <c r="D16">
         <v>11.9</v>
@@ -2195,13 +2185,13 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>3.5</v>
@@ -2248,13 +2238,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>8.4</v>
@@ -2301,13 +2291,13 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>67.599999999999994</v>
@@ -2354,13 +2344,13 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>64.8</v>
@@ -2407,13 +2397,13 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21">
         <v>24.1</v>
@@ -2460,13 +2450,13 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <v>43.5</v>
@@ -2513,13 +2503,13 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
         <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
       </c>
       <c r="D23">
         <v>82.7</v>
@@ -2566,13 +2556,13 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>72.400000000000006</v>
@@ -2619,13 +2609,13 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>34.9</v>
@@ -2672,13 +2662,13 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
         <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
       </c>
       <c r="D26">
         <v>35.200000000000003</v>
@@ -2725,13 +2715,13 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27">
         <v>29.9</v>
@@ -2778,13 +2768,13 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28">
         <v>58</v>
@@ -2831,13 +2821,13 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29">
         <v>36.799999999999997</v>
@@ -2884,13 +2874,13 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30">
         <v>8.4</v>
@@ -2937,13 +2927,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
         <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
       </c>
       <c r="D31">
         <v>63</v>
@@ -2990,13 +2980,13 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32">
         <v>47</v>
@@ -3043,13 +3033,13 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33">
         <v>26.6</v>
@@ -3096,13 +3086,13 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>69</v>
       </c>
       <c r="D34">
         <v>86.9</v>
@@ -3149,13 +3139,13 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35">
         <v>77.2</v>
@@ -3202,13 +3192,13 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36">
         <v>35.299999999999997</v>
@@ -3255,13 +3245,13 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37">
         <v>39.5</v>
@@ -3308,13 +3298,13 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38">
         <v>15</v>
@@ -3361,13 +3351,13 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
         <v>74</v>
-      </c>
-      <c r="C39" t="s">
-        <v>75</v>
       </c>
       <c r="D39">
         <v>59.1</v>
@@ -3414,13 +3404,13 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40">
         <v>8.6999999999999993</v>
@@ -3467,13 +3457,13 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41">
         <v>18</v>
@@ -3520,13 +3510,13 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42">
         <v>27.3</v>
@@ -3573,13 +3563,13 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43">
         <v>2.2000000000000002</v>
@@ -3626,13 +3616,13 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44">
         <v>29.6</v>
@@ -3679,13 +3669,13 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45">
         <v>32</v>
@@ -3732,13 +3722,13 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
         <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>83</v>
       </c>
       <c r="D46">
         <v>91.5</v>
@@ -3785,13 +3775,13 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47">
         <v>85.3</v>
@@ -3838,13 +3828,13 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48">
         <v>27</v>
@@ -3891,13 +3881,13 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49">
         <v>28.3</v>
@@ -3944,13 +3934,13 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D50">
         <v>23.3</v>
@@ -3997,13 +3987,13 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D51">
         <v>55.7</v>
@@ -4050,13 +4040,13 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
         <v>89</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>90</v>
-      </c>
-      <c r="C52" t="s">
-        <v>91</v>
       </c>
       <c r="D52">
         <v>14.3</v>
@@ -4103,13 +4093,13 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" t="s">
         <v>89</v>
       </c>
-      <c r="B53" t="s">
-        <v>90</v>
-      </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53">
         <v>8.6</v>
@@ -4156,13 +4146,13 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
         <v>89</v>
       </c>
-      <c r="B54" t="s">
-        <v>90</v>
-      </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -4209,13 +4199,13 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
         <v>89</v>
       </c>
-      <c r="B55" t="s">
-        <v>90</v>
-      </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55">
         <v>2.8</v>
@@ -4262,13 +4252,13 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
         <v>89</v>
       </c>
-      <c r="B56" t="s">
-        <v>90</v>
-      </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D56">
         <v>0.8</v>
@@ -4315,13 +4305,13 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
         <v>89</v>
       </c>
-      <c r="B57" t="s">
-        <v>90</v>
-      </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57">
         <v>2.9</v>
@@ -4368,13 +4358,13 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D58">
         <v>25.6</v>
@@ -4421,13 +4411,13 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D59">
         <v>12.9</v>
@@ -4474,13 +4464,13 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
         <v>99</v>
       </c>
-      <c r="B60" t="s">
-        <v>100</v>
-      </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60">
         <v>74.099999999999994</v>
@@ -4527,13 +4517,13 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61">
         <v>25.4</v>
@@ -4580,13 +4570,13 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D62">
         <v>15.4</v>
@@ -4633,13 +4623,13 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63">
         <v>13.2</v>
@@ -4686,13 +4676,13 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D64">
         <v>5.4</v>
@@ -4739,13 +4729,13 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D65">
         <v>18.2</v>
@@ -4792,13 +4782,13 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D66">
         <v>73.5</v>
@@ -4845,13 +4835,13 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67">
         <v>19.8</v>
@@ -4898,13 +4888,13 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D68">
         <v>56.7</v>
@@ -4951,13 +4941,13 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D69">
         <v>76.900000000000006</v>
@@ -5004,13 +4994,13 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D70">
         <v>19.399999999999999</v>
@@ -5057,13 +5047,13 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D71">
         <v>2.6</v>
@@ -5110,13 +5100,13 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D72">
         <v>13.5</v>
@@ -5163,13 +5153,13 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D73">
         <v>7.2</v>
@@ -5216,13 +5206,13 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D74">
         <v>27.2</v>
@@ -5269,13 +5259,13 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" t="s">
         <v>115</v>
-      </c>
-      <c r="C75" t="s">
-        <v>116</v>
       </c>
       <c r="D75">
         <v>42.1</v>
@@ -5322,13 +5312,13 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D76">
         <v>31</v>
@@ -5375,13 +5365,13 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" t="s">
         <v>118</v>
-      </c>
-      <c r="C77" t="s">
-        <v>119</v>
       </c>
       <c r="D77">
         <v>40.200000000000003</v>
@@ -5428,13 +5418,13 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D78">
         <v>21.5</v>
@@ -5481,13 +5471,13 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D79">
         <v>12.7</v>
@@ -5534,13 +5524,13 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D80">
         <v>22.8</v>
@@ -5587,13 +5577,13 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s">
         <v>123</v>
-      </c>
-      <c r="C81" t="s">
-        <v>124</v>
       </c>
       <c r="D81">
         <v>68.7</v>
@@ -5640,13 +5630,13 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D82">
         <v>50.4</v>
@@ -5693,13 +5683,13 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D83">
         <v>31.5</v>
@@ -5746,13 +5736,13 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D84">
         <v>38.6</v>
@@ -5799,13 +5789,13 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D85">
         <v>17.899999999999999</v>
@@ -5852,13 +5842,13 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D86">
         <v>4.3</v>
@@ -5905,13 +5895,13 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D87">
         <v>31.4</v>
@@ -5958,13 +5948,13 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" t="s">
         <v>131</v>
       </c>
-      <c r="B88" t="s">
-        <v>132</v>
-      </c>
       <c r="C88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D88">
         <v>56.5</v>
@@ -6011,13 +6001,13 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D89">
         <v>16.100000000000001</v>
@@ -6064,13 +6054,13 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" t="s">
         <v>134</v>
-      </c>
-      <c r="C90" t="s">
-        <v>135</v>
       </c>
       <c r="D90">
         <v>72</v>
@@ -6117,13 +6107,13 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D91">
         <v>35</v>
@@ -6170,13 +6160,13 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D92">
         <v>52.5</v>
@@ -6223,13 +6213,13 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C93" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D93">
         <v>20.3</v>
@@ -6276,13 +6266,13 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D94">
         <v>11</v>
@@ -6329,13 +6319,13 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D95">
         <v>33.6</v>
@@ -6382,13 +6372,13 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D96">
         <v>17.899999999999999</v>
@@ -6435,13 +6425,13 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" t="s">
         <v>142</v>
-      </c>
-      <c r="B97" t="s">
-        <v>142</v>
-      </c>
-      <c r="C97" t="s">
-        <v>143</v>
       </c>
       <c r="D97">
         <v>22.9</v>
@@ -6488,13 +6478,13 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D98">
         <v>23.2</v>
@@ -6541,13 +6531,13 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D99">
         <v>7.7</v>
@@ -6594,13 +6584,13 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" t="s">
         <v>14</v>
-      </c>
-      <c r="C100" t="s">
-        <v>15</v>
       </c>
       <c r="D100">
         <v>75.8</v>
@@ -6647,13 +6637,13 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" t="s">
         <v>146</v>
-      </c>
-      <c r="B101" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" t="s">
-        <v>147</v>
       </c>
       <c r="D101">
         <v>0.1</v>
@@ -6700,13 +6690,13 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="C102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D102">
         <v>34.4</v>
@@ -6753,13 +6743,13 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D103">
         <v>9.8000000000000007</v>
@@ -6806,13 +6796,13 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="C104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D104">
         <v>16.399999999999999</v>
@@ -6859,13 +6849,13 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D105">
         <v>59.2</v>
@@ -6912,16 +6902,16 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D106" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E106">
         <v>0.3</v>
@@ -6965,13 +6955,13 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B107" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" t="s">
         <v>152</v>
-      </c>
-      <c r="C107" t="s">
-        <v>153</v>
       </c>
       <c r="D107">
         <v>42.2</v>
@@ -7018,13 +7008,13 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D108">
         <v>17.100000000000001</v>
@@ -7071,13 +7061,13 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D109">
         <v>10</v>
@@ -7124,13 +7114,13 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D110">
         <v>21</v>
@@ -7177,13 +7167,13 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D111">
         <v>36.700000000000003</v>
@@ -7230,13 +7220,13 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112">
         <v>52.6</v>
@@ -7283,13 +7273,13 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" t="s">
         <v>158</v>
-      </c>
-      <c r="B113" t="s">
-        <v>158</v>
-      </c>
-      <c r="C113" t="s">
-        <v>159</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -7336,13 +7326,13 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D114">
         <v>27.6</v>
@@ -7389,13 +7379,13 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D115">
         <v>6.7</v>
@@ -7442,13 +7432,13 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D116">
         <v>30.5</v>
@@ -7495,13 +7485,13 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>161</v>
+      </c>
+      <c r="B117" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" t="s">
         <v>162</v>
-      </c>
-      <c r="B117" t="s">
-        <v>162</v>
-      </c>
-      <c r="C117" t="s">
-        <v>163</v>
       </c>
       <c r="D117">
         <v>88.1</v>
@@ -7548,13 +7538,13 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118">
         <v>85.9</v>
@@ -7601,13 +7591,13 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B119" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119" t="s">
         <v>164</v>
-      </c>
-      <c r="C119" t="s">
-        <v>165</v>
       </c>
       <c r="D119">
         <v>16</v>
@@ -7654,13 +7644,13 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D120">
         <v>3.8</v>
@@ -7707,13 +7697,13 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D121">
         <v>70.7</v>
@@ -7760,13 +7750,13 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D122">
         <v>18.8</v>
@@ -7813,13 +7803,13 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D123">
         <v>14.6</v>
@@ -7866,13 +7856,13 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" t="s">
         <v>168</v>
-      </c>
-      <c r="C124" t="s">
-        <v>169</v>
       </c>
       <c r="D124">
         <v>0.4</v>
@@ -7919,13 +7909,13 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B125" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D125">
         <v>5.8</v>
@@ -7972,13 +7962,13 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D126">
         <v>7.7</v>
@@ -8025,13 +8015,13 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B127" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" t="s">
         <v>171</v>
-      </c>
-      <c r="C127" t="s">
-        <v>172</v>
       </c>
       <c r="D127">
         <v>1.4</v>
@@ -8078,13 +8068,13 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>172</v>
+      </c>
+      <c r="B128" t="s">
+        <v>172</v>
+      </c>
+      <c r="C128" t="s">
         <v>173</v>
-      </c>
-      <c r="B128" t="s">
-        <v>173</v>
-      </c>
-      <c r="C128" t="s">
-        <v>174</v>
       </c>
       <c r="D128">
         <v>50.2</v>
@@ -8131,13 +8121,13 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B129" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D129">
         <v>7.7</v>
@@ -8184,13 +8174,13 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B130" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D130">
         <v>15.7</v>
@@ -8237,13 +8227,13 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B131" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C131" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D131">
         <v>29.1</v>
@@ -8290,13 +8280,13 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B132" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D132">
         <v>7.4</v>
@@ -8343,13 +8333,13 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C133" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D133">
         <v>2.4</v>
@@ -8396,13 +8386,13 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B134" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C134" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D134">
         <v>9.4</v>
@@ -8449,13 +8439,13 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B135" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C135" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D135">
         <v>7.2</v>
@@ -8502,13 +8492,13 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B136" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C136" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D136">
         <v>2.2000000000000002</v>
@@ -8555,13 +8545,13 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>179</v>
+      </c>
+      <c r="B137" t="s">
+        <v>179</v>
+      </c>
+      <c r="C137" t="s">
         <v>180</v>
-      </c>
-      <c r="B137" t="s">
-        <v>180</v>
-      </c>
-      <c r="C137" t="s">
-        <v>181</v>
       </c>
       <c r="D137">
         <v>27.6</v>
@@ -8608,13 +8598,13 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C138" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D138">
         <v>32.6</v>
@@ -8661,13 +8651,13 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C139" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D139">
         <v>9.8000000000000007</v>
@@ -8714,13 +8704,13 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C140" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D140">
         <v>5.6</v>
@@ -8767,13 +8757,13 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D141">
         <v>11.4</v>
@@ -8820,13 +8810,13 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B142" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D142">
         <v>1.9</v>
@@ -8873,13 +8863,13 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C143" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D143">
         <v>2.6</v>
@@ -8926,13 +8916,13 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B144" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C144" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D144">
         <v>5.8</v>
@@ -8979,13 +8969,13 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B145" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C145" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D145">
         <v>1.1000000000000001</v>
@@ -9032,13 +9022,13 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" t="s">
         <v>187</v>
       </c>
-      <c r="B146" t="s">
-        <v>188</v>
-      </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D146">
         <v>56.8</v>
@@ -9085,13 +9075,13 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>186</v>
+      </c>
+      <c r="B147" t="s">
         <v>187</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>188</v>
-      </c>
-      <c r="C147" t="s">
-        <v>189</v>
       </c>
       <c r="D147">
         <v>10.9</v>
@@ -9138,13 +9128,13 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>186</v>
+      </c>
+      <c r="B148" t="s">
         <v>187</v>
       </c>
-      <c r="B148" t="s">
-        <v>188</v>
-      </c>
       <c r="C148" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D148">
         <v>10.4</v>
@@ -9191,13 +9181,13 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149">
         <v>17.8</v>
@@ -9244,13 +9234,13 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B150" t="s">
+        <v>190</v>
+      </c>
+      <c r="C150" t="s">
         <v>191</v>
-      </c>
-      <c r="C150" t="s">
-        <v>192</v>
       </c>
       <c r="D150">
         <v>1.5</v>
@@ -9297,13 +9287,13 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C151" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D151">
         <v>3.1</v>
@@ -9350,13 +9340,13 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B152" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C152" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D152">
         <v>3.1</v>
@@ -9403,13 +9393,13 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B153" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C153" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D153">
         <v>15.7</v>
@@ -9456,13 +9446,13 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B154" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C154" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D154">
         <v>4.0999999999999996</v>
@@ -9509,13 +9499,13 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B155" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C155" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -9562,13 +9552,13 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B156" t="s">
+        <v>197</v>
+      </c>
+      <c r="C156" t="s">
         <v>198</v>
-      </c>
-      <c r="C156" t="s">
-        <v>199</v>
       </c>
       <c r="D156">
         <v>1.7</v>
@@ -9615,13 +9605,13 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B157" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C157" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D157">
         <v>0.8</v>
@@ -9668,13 +9658,13 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" t="s">
+        <v>200</v>
+      </c>
+      <c r="C158" t="s">
         <v>201</v>
-      </c>
-      <c r="B158" t="s">
-        <v>201</v>
-      </c>
-      <c r="C158" t="s">
-        <v>202</v>
       </c>
       <c r="D158">
         <v>81.099999999999994</v>
@@ -9721,13 +9711,13 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B159" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C159" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D159">
         <v>13.8</v>
@@ -9774,13 +9764,13 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>203</v>
+      </c>
+      <c r="B160" t="s">
         <v>204</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>205</v>
-      </c>
-      <c r="C160" t="s">
-        <v>206</v>
       </c>
       <c r="D160">
         <v>87.1</v>
@@ -9827,13 +9817,13 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>203</v>
+      </c>
+      <c r="B161" t="s">
         <v>204</v>
       </c>
-      <c r="B161" t="s">
-        <v>205</v>
-      </c>
       <c r="C161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D161">
         <v>78.099999999999994</v>
@@ -9880,13 +9870,13 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>203</v>
+      </c>
+      <c r="B162" t="s">
         <v>204</v>
       </c>
-      <c r="B162" t="s">
-        <v>205</v>
-      </c>
       <c r="C162" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D162">
         <v>0.9</v>
@@ -9933,13 +9923,13 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163" t="s">
         <v>204</v>
       </c>
-      <c r="B163" t="s">
-        <v>205</v>
-      </c>
       <c r="C163" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D163">
         <v>3.1</v>
@@ -9986,13 +9976,13 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>203</v>
+      </c>
+      <c r="B164" t="s">
         <v>204</v>
       </c>
-      <c r="B164" t="s">
-        <v>205</v>
-      </c>
       <c r="C164" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D164">
         <v>21.7</v>
@@ -10039,13 +10029,13 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" t="s">
         <v>204</v>
       </c>
-      <c r="B165" t="s">
-        <v>205</v>
-      </c>
       <c r="C165" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D165">
         <v>31.1</v>
@@ -10092,13 +10082,13 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>203</v>
+      </c>
+      <c r="B166" t="s">
         <v>204</v>
       </c>
-      <c r="B166" t="s">
-        <v>205</v>
-      </c>
       <c r="C166" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D166">
         <v>47.2</v>
@@ -10145,13 +10135,13 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>203</v>
+      </c>
+      <c r="B167" t="s">
         <v>204</v>
       </c>
-      <c r="B167" t="s">
-        <v>205</v>
-      </c>
       <c r="C167" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D167">
         <v>62.3</v>
@@ -10198,13 +10188,13 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B168" t="s">
+        <v>213</v>
+      </c>
+      <c r="C168" t="s">
         <v>214</v>
-      </c>
-      <c r="C168" t="s">
-        <v>215</v>
       </c>
       <c r="D168">
         <v>18.899999999999999</v>
@@ -10251,13 +10241,13 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B169" t="s">
+        <v>215</v>
+      </c>
+      <c r="C169" t="s">
         <v>216</v>
-      </c>
-      <c r="C169" t="s">
-        <v>217</v>
       </c>
       <c r="D169">
         <v>87.9</v>
@@ -10304,13 +10294,13 @@
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C170" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D170">
         <v>75.5</v>
@@ -10357,13 +10347,13 @@
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B171" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C171" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D171">
         <v>43.4</v>
@@ -10410,13 +10400,13 @@
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B172" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C172" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D172">
         <v>47</v>
@@ -10463,13 +10453,13 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B173" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C173" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D173">
         <v>6.3</v>
@@ -10516,13 +10506,13 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B174" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C174" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D174">
         <v>23.8</v>
@@ -10569,13 +10559,13 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B175" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C175" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D175">
         <v>28.9</v>
@@ -10622,13 +10612,13 @@
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B176" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C176" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D176">
         <v>17.100000000000001</v>
@@ -10675,13 +10665,13 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B177" t="s">
+        <v>223</v>
+      </c>
+      <c r="C177" t="s">
         <v>224</v>
-      </c>
-      <c r="C177" t="s">
-        <v>225</v>
       </c>
       <c r="D177">
         <v>8.6</v>
@@ -10728,13 +10718,13 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B178" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C178" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D178">
         <v>12.4</v>
@@ -10781,13 +10771,13 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B179" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C179" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D179">
         <v>6</v>
@@ -10834,13 +10824,13 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B180" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C180" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D180">
         <v>27.4</v>
@@ -10887,13 +10877,13 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B181" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C181" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D181">
         <v>2.7</v>
@@ -10940,13 +10930,13 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>227</v>
+      </c>
+      <c r="B182" t="s">
         <v>228</v>
       </c>
-      <c r="B182" t="s">
-        <v>229</v>
-      </c>
       <c r="C182" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D182">
         <v>41.9</v>
@@ -10993,13 +10983,13 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B183" t="s">
+        <v>229</v>
+      </c>
+      <c r="C183" t="s">
         <v>230</v>
-      </c>
-      <c r="C183" t="s">
-        <v>231</v>
       </c>
       <c r="D183">
         <v>35.700000000000003</v>
@@ -11046,13 +11036,13 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B184" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C184" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D184">
         <v>33.5</v>
@@ -11099,13 +11089,13 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B185" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C185" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D185">
         <v>13.3</v>
@@ -11152,13 +11142,13 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B186" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C186" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D186">
         <v>17.899999999999999</v>
@@ -11205,13 +11195,13 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B187" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C187" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D187">
         <v>3.2</v>
@@ -11258,13 +11248,13 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B188" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C188" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D188">
         <v>9.6</v>
@@ -11311,13 +11301,13 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B189" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C189" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D189">
         <v>5.2</v>
@@ -11364,13 +11354,13 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>237</v>
+      </c>
+      <c r="B190" t="s">
+        <v>237</v>
+      </c>
+      <c r="C190" t="s">
         <v>238</v>
-      </c>
-      <c r="B190" t="s">
-        <v>238</v>
-      </c>
-      <c r="C190" t="s">
-        <v>239</v>
       </c>
       <c r="D190">
         <v>42.6</v>
@@ -11417,13 +11407,13 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B191" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C191" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D191">
         <v>41</v>
@@ -11470,13 +11460,13 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B192" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C192" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D192">
         <v>59.4</v>
@@ -11523,13 +11513,13 @@
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B193" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C193" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D193">
         <v>68.8</v>
@@ -11576,13 +11566,13 @@
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B194" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C194" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D194">
         <v>52.6</v>
@@ -11629,13 +11619,13 @@
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B195" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C195" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D195">
         <v>33.6</v>
@@ -11682,13 +11672,13 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B196" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C196" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D196">
         <v>14.3</v>
@@ -11735,13 +11725,13 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B197" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C197" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D197">
         <v>34.4</v>
@@ -11788,13 +11778,13 @@
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>246</v>
+      </c>
+      <c r="B198" t="s">
+        <v>246</v>
+      </c>
+      <c r="C198" t="s">
         <v>247</v>
-      </c>
-      <c r="B198" t="s">
-        <v>247</v>
-      </c>
-      <c r="C198" t="s">
-        <v>248</v>
       </c>
       <c r="D198">
         <v>31.8</v>
@@ -11841,13 +11831,13 @@
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B199" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C199" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D199">
         <v>23.9</v>
@@ -11894,13 +11884,13 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B200" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C200" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D200">
         <v>24.7</v>
@@ -11947,13 +11937,13 @@
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B201" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C201" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D201">
         <v>56.6</v>
@@ -12000,13 +11990,13 @@
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>251</v>
+      </c>
+      <c r="B202" t="s">
         <v>252</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>253</v>
-      </c>
-      <c r="C202" t="s">
-        <v>254</v>
       </c>
       <c r="D202">
         <v>25.5</v>
@@ -12053,13 +12043,13 @@
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>251</v>
+      </c>
+      <c r="B203" t="s">
         <v>252</v>
       </c>
-      <c r="B203" t="s">
-        <v>253</v>
-      </c>
       <c r="C203" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D203">
         <v>10.1</v>
@@ -12106,13 +12096,13 @@
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>251</v>
+      </c>
+      <c r="B204" t="s">
         <v>252</v>
       </c>
-      <c r="B204" t="s">
-        <v>253</v>
-      </c>
       <c r="C204" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D204">
         <v>22</v>
@@ -12159,13 +12149,13 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B205" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C205" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D205">
         <v>25.3</v>
@@ -12212,13 +12202,13 @@
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B206" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C206" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D206">
         <v>22</v>
@@ -12265,13 +12255,13 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>258</v>
+      </c>
+      <c r="B207" t="s">
         <v>259</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>260</v>
-      </c>
-      <c r="C207" t="s">
-        <v>261</v>
       </c>
       <c r="D207">
         <v>77.900000000000006</v>
@@ -12318,13 +12308,13 @@
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>258</v>
+      </c>
+      <c r="B208" t="s">
         <v>259</v>
       </c>
-      <c r="B208" t="s">
-        <v>260</v>
-      </c>
       <c r="C208" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D208">
         <v>7.1</v>
@@ -12371,13 +12361,13 @@
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>258</v>
+      </c>
+      <c r="B209" t="s">
         <v>259</v>
       </c>
-      <c r="B209" t="s">
-        <v>260</v>
-      </c>
       <c r="C209" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D209">
         <v>12.1</v>
@@ -12424,13 +12414,13 @@
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B210" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C210" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D210">
         <v>3.2</v>
@@ -12477,13 +12467,13 @@
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B211" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C211" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D211">
         <v>18.600000000000001</v>
@@ -12530,13 +12520,13 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B212" t="s">
+        <v>264</v>
+      </c>
+      <c r="C212" t="s">
         <v>265</v>
-      </c>
-      <c r="C212" t="s">
-        <v>266</v>
       </c>
       <c r="D212">
         <v>13</v>
@@ -12583,13 +12573,13 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B213" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C213" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D213">
         <v>5.7</v>
@@ -12636,13 +12626,13 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B214" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C214" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D214">
         <v>1.3</v>
@@ -12689,13 +12679,13 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B215" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C215" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D215">
         <v>9.6</v>
@@ -12742,13 +12732,13 @@
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B216" t="s">
+        <v>268</v>
+      </c>
+      <c r="C216" t="s">
         <v>269</v>
-      </c>
-      <c r="C216" t="s">
-        <v>270</v>
       </c>
       <c r="D216">
         <v>6.7</v>
@@ -12795,13 +12785,13 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B217" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C217" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D217">
         <v>3.3</v>
@@ -12848,13 +12838,13 @@
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B218" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C218" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -12901,13 +12891,13 @@
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B219" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C219" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D219">
         <v>0.2</v>
@@ -12954,13 +12944,13 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B220" t="s">
+        <v>273</v>
+      </c>
+      <c r="C220" t="s">
         <v>274</v>
-      </c>
-      <c r="C220" t="s">
-        <v>275</v>
       </c>
       <c r="D220">
         <v>25.5</v>
@@ -13007,13 +12997,13 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>275</v>
+      </c>
+      <c r="B221" t="s">
+        <v>275</v>
+      </c>
+      <c r="C221" t="s">
         <v>276</v>
-      </c>
-      <c r="B221" t="s">
-        <v>276</v>
-      </c>
-      <c r="C221" t="s">
-        <v>277</v>
       </c>
       <c r="D221">
         <v>66.8</v>
@@ -13060,13 +13050,13 @@
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B222" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C222" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D222">
         <v>34.1</v>
@@ -13113,13 +13103,13 @@
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B223" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C223" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D223">
         <v>50.7</v>
@@ -13166,13 +13156,13 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B224" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C224" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D224">
         <v>3.3</v>
@@ -13219,13 +13209,13 @@
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B225" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C225" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D225">
         <v>1.1000000000000001</v>
@@ -13272,13 +13262,13 @@
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B226" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C226" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D226">
         <v>2.9</v>
@@ -13325,13 +13315,13 @@
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B227" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C227" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D227">
         <v>2.7</v>
@@ -13378,13 +13368,13 @@
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B228" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C228" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D228">
         <v>3.7</v>
@@ -13431,13 +13421,13 @@
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B229" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C229" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D229">
         <v>2</v>
@@ -13484,13 +13474,13 @@
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B230" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C230" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D230">
         <v>2.9</v>
@@ -13526,7 +13516,7 @@
         <v>1</v>
       </c>
       <c r="O230" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P230">
         <v>0</v>
@@ -13537,13 +13527,13 @@
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B231" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C231" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D231">
         <v>4.2</v>
@@ -13590,13 +13580,13 @@
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B232" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C232" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D232">
         <v>1.1000000000000001</v>
@@ -13620,7 +13610,7 @@
         <v>0.2</v>
       </c>
       <c r="K232" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L232">
         <v>5.3</v>
@@ -13643,13 +13633,13 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B233" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C233" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D233">
         <v>3.8</v>
@@ -13696,13 +13686,13 @@
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B234" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C234" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D234">
         <v>47.4</v>
@@ -13749,13 +13739,13 @@
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B235" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C235" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D235">
         <v>14</v>
@@ -13802,13 +13792,13 @@
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B236" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C236" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D236">
         <v>4.8</v>
@@ -13855,13 +13845,13 @@
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B237" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C237" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D237">
         <v>11</v>
@@ -13908,13 +13898,13 @@
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B238" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C238" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D238">
         <v>25.7</v>
@@ -13961,13 +13951,13 @@
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B239" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C239" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D239">
         <v>0.8</v>
@@ -14014,13 +14004,13 @@
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B240" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C240" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D240">
         <v>4.5999999999999996</v>
@@ -14067,13 +14057,13 @@
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B241" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C241" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D241">
         <v>0.5</v>
@@ -14120,13 +14110,13 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B242" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C242" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D242">
         <v>8</v>
@@ -14173,13 +14163,13 @@
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B243" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C243" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D243">
         <v>2</v>
@@ -14226,13 +14216,13 @@
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B244" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C244" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D244">
         <v>6</v>
@@ -14279,6 +14269,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14286,9 +14277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5F283A-7D7A-4D20-8A66-5C61CD17B176}">
   <dimension ref="A1:Q244"/>
   <sheetViews>
-    <sheetView topLeftCell="C199" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O231" sqref="O231"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14313,13 +14302,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" t="s">
         <v>308</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>309</v>
-      </c>
-      <c r="C1" t="s">
-        <v>310</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -14366,13 +14355,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
       </c>
       <c r="D2">
         <v>75.900000000000006</v>
@@ -14419,13 +14408,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>22</v>
@@ -14472,13 +14461,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>30.6</v>
@@ -14525,13 +14514,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>42.8</v>
@@ -14578,13 +14567,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>12.2</v>
@@ -14631,13 +14620,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>37.700000000000003</v>
@@ -14684,13 +14673,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
       </c>
       <c r="D8">
         <v>86.3</v>
@@ -14737,13 +14726,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>28.7</v>
@@ -14790,13 +14779,13 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>38.299999999999997</v>
@@ -14843,13 +14832,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>53.9</v>
@@ -14896,13 +14885,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>37.9</v>
@@ -14949,13 +14938,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>23</v>
@@ -15002,13 +14991,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>49.3</v>
@@ -15055,13 +15044,13 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
       </c>
       <c r="D15">
         <v>32</v>
@@ -15108,13 +15097,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
       </c>
       <c r="D16">
         <v>11.9</v>
@@ -15161,13 +15150,13 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>3.5</v>
@@ -15214,13 +15203,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>8.4</v>
@@ -15267,13 +15256,13 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>67.599999999999994</v>
@@ -15320,13 +15309,13 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>64.8</v>
@@ -15373,13 +15362,13 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21">
         <v>24.1</v>
@@ -15426,13 +15415,13 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <v>43.5</v>
@@ -15479,13 +15468,13 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
         <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
       </c>
       <c r="D23">
         <v>82.7</v>
@@ -15532,13 +15521,13 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>72.400000000000006</v>
@@ -15585,13 +15574,13 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>34.9</v>
@@ -15638,13 +15627,13 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
         <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
       </c>
       <c r="D26">
         <v>35.200000000000003</v>
@@ -15691,13 +15680,13 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27">
         <v>29.9</v>
@@ -15744,13 +15733,13 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28">
         <v>58</v>
@@ -15797,13 +15786,13 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29">
         <v>36.799999999999997</v>
@@ -15850,13 +15839,13 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30">
         <v>8.4</v>
@@ -15903,13 +15892,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
         <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
       </c>
       <c r="D31">
         <v>63</v>
@@ -15956,13 +15945,13 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32">
         <v>47</v>
@@ -16009,13 +15998,13 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33">
         <v>26.6</v>
@@ -16062,13 +16051,13 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>69</v>
       </c>
       <c r="D34">
         <v>86.9</v>
@@ -16115,13 +16104,13 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35">
         <v>77.2</v>
@@ -16168,13 +16157,13 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36">
         <v>35.299999999999997</v>
@@ -16221,13 +16210,13 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37">
         <v>39.5</v>
@@ -16274,13 +16263,13 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38">
         <v>15</v>
@@ -16327,13 +16316,13 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
         <v>74</v>
-      </c>
-      <c r="C39" t="s">
-        <v>75</v>
       </c>
       <c r="D39">
         <v>59.1</v>
@@ -16380,13 +16369,13 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40">
         <v>8.6999999999999993</v>
@@ -16433,13 +16422,13 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41">
         <v>18</v>
@@ -16486,13 +16475,13 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42">
         <v>27.3</v>
@@ -16539,13 +16528,13 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43">
         <v>2.2000000000000002</v>
@@ -16592,13 +16581,13 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44">
         <v>29.6</v>
@@ -16645,13 +16634,13 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45">
         <v>32</v>
@@ -16698,13 +16687,13 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
         <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>83</v>
       </c>
       <c r="D46">
         <v>91.5</v>
@@ -16751,13 +16740,13 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47">
         <v>85.3</v>
@@ -16804,13 +16793,13 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48">
         <v>27</v>
@@ -16857,13 +16846,13 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49">
         <v>28.3</v>
@@ -16910,13 +16899,13 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D50">
         <v>23.3</v>
@@ -16963,13 +16952,13 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D51">
         <v>55.7</v>
@@ -17016,13 +17005,13 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
         <v>89</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>90</v>
-      </c>
-      <c r="C52" t="s">
-        <v>91</v>
       </c>
       <c r="D52">
         <v>14.3</v>
@@ -17069,13 +17058,13 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" t="s">
         <v>89</v>
       </c>
-      <c r="B53" t="s">
-        <v>90</v>
-      </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53">
         <v>8.6</v>
@@ -17122,13 +17111,13 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
         <v>89</v>
       </c>
-      <c r="B54" t="s">
-        <v>90</v>
-      </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -17175,13 +17164,13 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
         <v>89</v>
       </c>
-      <c r="B55" t="s">
-        <v>90</v>
-      </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55">
         <v>2.8</v>
@@ -17228,13 +17217,13 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
         <v>89</v>
       </c>
-      <c r="B56" t="s">
-        <v>90</v>
-      </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D56">
         <v>0.8</v>
@@ -17281,13 +17270,13 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
         <v>89</v>
       </c>
-      <c r="B57" t="s">
-        <v>90</v>
-      </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57">
         <v>2.9</v>
@@ -17334,13 +17323,13 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D58">
         <v>25.6</v>
@@ -17387,13 +17376,13 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D59">
         <v>12.9</v>
@@ -17440,13 +17429,13 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
         <v>99</v>
       </c>
-      <c r="B60" t="s">
-        <v>100</v>
-      </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60">
         <v>74.099999999999994</v>
@@ -17493,13 +17482,13 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61">
         <v>25.4</v>
@@ -17546,13 +17535,13 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D62">
         <v>15.4</v>
@@ -17599,13 +17588,13 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63">
         <v>13.2</v>
@@ -17652,13 +17641,13 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D64">
         <v>5.4</v>
@@ -17705,13 +17694,13 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D65">
         <v>18.2</v>
@@ -17758,13 +17747,13 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D66">
         <v>73.5</v>
@@ -17811,13 +17800,13 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67">
         <v>19.8</v>
@@ -17864,13 +17853,13 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D68">
         <v>56.7</v>
@@ -17917,13 +17906,13 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D69">
         <v>76.900000000000006</v>
@@ -17970,13 +17959,13 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D70">
         <v>19.399999999999999</v>
@@ -18023,13 +18012,13 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D71">
         <v>2.6</v>
@@ -18076,13 +18065,13 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D72">
         <v>13.5</v>
@@ -18129,13 +18118,13 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D73">
         <v>7.2</v>
@@ -18182,13 +18171,13 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D74">
         <v>27.2</v>
@@ -18235,13 +18224,13 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" t="s">
         <v>115</v>
-      </c>
-      <c r="C75" t="s">
-        <v>116</v>
       </c>
       <c r="D75">
         <v>42.1</v>
@@ -18288,13 +18277,13 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D76">
         <v>31</v>
@@ -18341,13 +18330,13 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" t="s">
         <v>118</v>
-      </c>
-      <c r="C77" t="s">
-        <v>119</v>
       </c>
       <c r="D77">
         <v>40.200000000000003</v>
@@ -18394,13 +18383,13 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D78">
         <v>21.5</v>
@@ -18447,13 +18436,13 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D79">
         <v>12.7</v>
@@ -18500,13 +18489,13 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D80">
         <v>22.8</v>
@@ -18553,13 +18542,13 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s">
         <v>123</v>
-      </c>
-      <c r="C81" t="s">
-        <v>124</v>
       </c>
       <c r="D81">
         <v>68.7</v>
@@ -18606,13 +18595,13 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D82">
         <v>50.4</v>
@@ -18659,13 +18648,13 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D83">
         <v>31.5</v>
@@ -18712,13 +18701,13 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D84">
         <v>38.6</v>
@@ -18765,13 +18754,13 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D85">
         <v>17.899999999999999</v>
@@ -18818,13 +18807,13 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D86">
         <v>4.3</v>
@@ -18871,13 +18860,13 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D87">
         <v>31.4</v>
@@ -18924,13 +18913,13 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" t="s">
         <v>131</v>
       </c>
-      <c r="B88" t="s">
-        <v>132</v>
-      </c>
       <c r="C88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D88">
         <v>56.5</v>
@@ -18977,13 +18966,13 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D89">
         <v>16.100000000000001</v>
@@ -19030,13 +19019,13 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" t="s">
         <v>134</v>
-      </c>
-      <c r="C90" t="s">
-        <v>135</v>
       </c>
       <c r="D90">
         <v>72</v>
@@ -19083,13 +19072,13 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D91">
         <v>35</v>
@@ -19136,13 +19125,13 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D92">
         <v>52.5</v>
@@ -19189,13 +19178,13 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C93" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D93">
         <v>20.3</v>
@@ -19242,13 +19231,13 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D94">
         <v>11</v>
@@ -19295,13 +19284,13 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D95">
         <v>33.6</v>
@@ -19348,13 +19337,13 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D96">
         <v>17.899999999999999</v>
@@ -19401,13 +19390,13 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" t="s">
         <v>142</v>
-      </c>
-      <c r="B97" t="s">
-        <v>142</v>
-      </c>
-      <c r="C97" t="s">
-        <v>143</v>
       </c>
       <c r="D97">
         <v>22.9</v>
@@ -19454,13 +19443,13 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D98">
         <v>23.2</v>
@@ -19507,13 +19496,13 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D99">
         <v>7.7</v>
@@ -19560,13 +19549,13 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" t="s">
         <v>14</v>
-      </c>
-      <c r="C100" t="s">
-        <v>15</v>
       </c>
       <c r="D100">
         <v>75.8</v>
@@ -19613,13 +19602,13 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" t="s">
         <v>146</v>
-      </c>
-      <c r="B101" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" t="s">
-        <v>147</v>
       </c>
       <c r="D101">
         <v>0.1</v>
@@ -19666,13 +19655,13 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="C102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D102">
         <v>34.4</v>
@@ -19719,13 +19708,13 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D103">
         <v>9.8000000000000007</v>
@@ -19772,13 +19761,13 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="C104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D104">
         <v>16.399999999999999</v>
@@ -19825,13 +19814,13 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D105">
         <v>59.2</v>
@@ -19878,13 +19867,13 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -19931,13 +19920,13 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B107" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" t="s">
         <v>152</v>
-      </c>
-      <c r="C107" t="s">
-        <v>153</v>
       </c>
       <c r="D107">
         <v>42.2</v>
@@ -19984,13 +19973,13 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D108">
         <v>17.100000000000001</v>
@@ -20037,13 +20026,13 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D109">
         <v>10</v>
@@ -20090,13 +20079,13 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D110">
         <v>21</v>
@@ -20143,13 +20132,13 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D111">
         <v>36.700000000000003</v>
@@ -20196,13 +20185,13 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112">
         <v>52.6</v>
@@ -20249,13 +20238,13 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" t="s">
         <v>158</v>
-      </c>
-      <c r="B113" t="s">
-        <v>158</v>
-      </c>
-      <c r="C113" t="s">
-        <v>159</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -20302,13 +20291,13 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D114">
         <v>27.6</v>
@@ -20355,13 +20344,13 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D115">
         <v>6.7</v>
@@ -20408,13 +20397,13 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D116">
         <v>30.5</v>
@@ -20461,13 +20450,13 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>161</v>
+      </c>
+      <c r="B117" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" t="s">
         <v>162</v>
-      </c>
-      <c r="B117" t="s">
-        <v>162</v>
-      </c>
-      <c r="C117" t="s">
-        <v>163</v>
       </c>
       <c r="D117">
         <v>88.1</v>
@@ -20514,13 +20503,13 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118">
         <v>85.9</v>
@@ -20567,13 +20556,13 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B119" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119" t="s">
         <v>164</v>
-      </c>
-      <c r="C119" t="s">
-        <v>165</v>
       </c>
       <c r="D119">
         <v>16</v>
@@ -20620,13 +20609,13 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D120">
         <v>3.8</v>
@@ -20673,13 +20662,13 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D121">
         <v>70.7</v>
@@ -20726,13 +20715,13 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D122">
         <v>18.8</v>
@@ -20779,13 +20768,13 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D123">
         <v>14.6</v>
@@ -20832,13 +20821,13 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" t="s">
         <v>168</v>
-      </c>
-      <c r="C124" t="s">
-        <v>169</v>
       </c>
       <c r="D124">
         <v>0.4</v>
@@ -20885,13 +20874,13 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B125" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D125">
         <v>5.8</v>
@@ -20938,13 +20927,13 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D126">
         <v>7.7</v>
@@ -20991,13 +20980,13 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B127" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" t="s">
         <v>171</v>
-      </c>
-      <c r="C127" t="s">
-        <v>172</v>
       </c>
       <c r="D127">
         <v>1.4</v>
@@ -21044,13 +21033,13 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>172</v>
+      </c>
+      <c r="B128" t="s">
+        <v>172</v>
+      </c>
+      <c r="C128" t="s">
         <v>173</v>
-      </c>
-      <c r="B128" t="s">
-        <v>173</v>
-      </c>
-      <c r="C128" t="s">
-        <v>174</v>
       </c>
       <c r="D128">
         <v>50.2</v>
@@ -21097,13 +21086,13 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B129" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D129">
         <v>7.7</v>
@@ -21150,13 +21139,13 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B130" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D130">
         <v>15.7</v>
@@ -21203,13 +21192,13 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B131" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C131" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D131">
         <v>29.1</v>
@@ -21256,13 +21245,13 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B132" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D132">
         <v>7.4</v>
@@ -21309,13 +21298,13 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C133" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D133">
         <v>2.4</v>
@@ -21362,13 +21351,13 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B134" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C134" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D134">
         <v>9.4</v>
@@ -21415,13 +21404,13 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B135" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C135" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D135">
         <v>7.2</v>
@@ -21468,13 +21457,13 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B136" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C136" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D136">
         <v>2.2000000000000002</v>
@@ -21521,13 +21510,13 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>179</v>
+      </c>
+      <c r="B137" t="s">
+        <v>179</v>
+      </c>
+      <c r="C137" t="s">
         <v>180</v>
-      </c>
-      <c r="B137" t="s">
-        <v>180</v>
-      </c>
-      <c r="C137" t="s">
-        <v>181</v>
       </c>
       <c r="D137">
         <v>27.6</v>
@@ -21574,13 +21563,13 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C138" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D138">
         <v>32.6</v>
@@ -21627,13 +21616,13 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C139" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D139">
         <v>9.8000000000000007</v>
@@ -21680,13 +21669,13 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C140" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D140">
         <v>5.6</v>
@@ -21733,13 +21722,13 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D141">
         <v>11.4</v>
@@ -21786,13 +21775,13 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B142" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D142">
         <v>1.9</v>
@@ -21839,13 +21828,13 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C143" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D143">
         <v>2.6</v>
@@ -21892,13 +21881,13 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B144" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C144" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D144">
         <v>5.8</v>
@@ -21945,13 +21934,13 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B145" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C145" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D145">
         <v>1.1000000000000001</v>
@@ -21998,13 +21987,13 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" t="s">
         <v>187</v>
       </c>
-      <c r="B146" t="s">
-        <v>188</v>
-      </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D146">
         <v>56.8</v>
@@ -22051,13 +22040,13 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>186</v>
+      </c>
+      <c r="B147" t="s">
         <v>187</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>188</v>
-      </c>
-      <c r="C147" t="s">
-        <v>189</v>
       </c>
       <c r="D147">
         <v>10.9</v>
@@ -22104,13 +22093,13 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>186</v>
+      </c>
+      <c r="B148" t="s">
         <v>187</v>
       </c>
-      <c r="B148" t="s">
-        <v>188</v>
-      </c>
       <c r="C148" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D148">
         <v>10.4</v>
@@ -22157,13 +22146,13 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149">
         <v>17.8</v>
@@ -22210,13 +22199,13 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B150" t="s">
+        <v>190</v>
+      </c>
+      <c r="C150" t="s">
         <v>191</v>
-      </c>
-      <c r="C150" t="s">
-        <v>192</v>
       </c>
       <c r="D150">
         <v>1.5</v>
@@ -22263,13 +22252,13 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C151" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D151">
         <v>3.1</v>
@@ -22316,13 +22305,13 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B152" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C152" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D152">
         <v>3.1</v>
@@ -22369,13 +22358,13 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B153" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C153" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D153">
         <v>15.7</v>
@@ -22422,13 +22411,13 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B154" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C154" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D154">
         <v>4.0999999999999996</v>
@@ -22475,13 +22464,13 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B155" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C155" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -22528,13 +22517,13 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B156" t="s">
+        <v>197</v>
+      </c>
+      <c r="C156" t="s">
         <v>198</v>
-      </c>
-      <c r="C156" t="s">
-        <v>199</v>
       </c>
       <c r="D156">
         <v>1.7</v>
@@ -22581,13 +22570,13 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B157" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C157" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D157">
         <v>0.8</v>
@@ -22634,13 +22623,13 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" t="s">
+        <v>200</v>
+      </c>
+      <c r="C158" t="s">
         <v>201</v>
-      </c>
-      <c r="B158" t="s">
-        <v>201</v>
-      </c>
-      <c r="C158" t="s">
-        <v>202</v>
       </c>
       <c r="D158">
         <v>81.099999999999994</v>
@@ -22687,13 +22676,13 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B159" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C159" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D159">
         <v>13.8</v>
@@ -22740,13 +22729,13 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>203</v>
+      </c>
+      <c r="B160" t="s">
         <v>204</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>205</v>
-      </c>
-      <c r="C160" t="s">
-        <v>206</v>
       </c>
       <c r="D160">
         <v>87.1</v>
@@ -22793,13 +22782,13 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>203</v>
+      </c>
+      <c r="B161" t="s">
         <v>204</v>
       </c>
-      <c r="B161" t="s">
-        <v>205</v>
-      </c>
       <c r="C161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D161">
         <v>78.099999999999994</v>
@@ -22846,13 +22835,13 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>203</v>
+      </c>
+      <c r="B162" t="s">
         <v>204</v>
       </c>
-      <c r="B162" t="s">
-        <v>205</v>
-      </c>
       <c r="C162" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D162">
         <v>0.9</v>
@@ -22899,13 +22888,13 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163" t="s">
         <v>204</v>
       </c>
-      <c r="B163" t="s">
-        <v>205</v>
-      </c>
       <c r="C163" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D163">
         <v>3.1</v>
@@ -22952,13 +22941,13 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>203</v>
+      </c>
+      <c r="B164" t="s">
         <v>204</v>
       </c>
-      <c r="B164" t="s">
-        <v>205</v>
-      </c>
       <c r="C164" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D164">
         <v>21.7</v>
@@ -23005,13 +22994,13 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" t="s">
         <v>204</v>
       </c>
-      <c r="B165" t="s">
-        <v>205</v>
-      </c>
       <c r="C165" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D165">
         <v>31.1</v>
@@ -23058,13 +23047,13 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>203</v>
+      </c>
+      <c r="B166" t="s">
         <v>204</v>
       </c>
-      <c r="B166" t="s">
-        <v>205</v>
-      </c>
       <c r="C166" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D166">
         <v>47.2</v>
@@ -23111,13 +23100,13 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>203</v>
+      </c>
+      <c r="B167" t="s">
         <v>204</v>
       </c>
-      <c r="B167" t="s">
-        <v>205</v>
-      </c>
       <c r="C167" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D167">
         <v>62.3</v>
@@ -23164,13 +23153,13 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B168" t="s">
+        <v>213</v>
+      </c>
+      <c r="C168" t="s">
         <v>214</v>
-      </c>
-      <c r="C168" t="s">
-        <v>215</v>
       </c>
       <c r="D168">
         <v>18.899999999999999</v>
@@ -23217,13 +23206,13 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B169" t="s">
+        <v>215</v>
+      </c>
+      <c r="C169" t="s">
         <v>216</v>
-      </c>
-      <c r="C169" t="s">
-        <v>217</v>
       </c>
       <c r="D169">
         <v>87.9</v>
@@ -23270,13 +23259,13 @@
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C170" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D170">
         <v>75.5</v>
@@ -23323,13 +23312,13 @@
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B171" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C171" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D171">
         <v>43.4</v>
@@ -23376,13 +23365,13 @@
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B172" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C172" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D172">
         <v>47</v>
@@ -23429,13 +23418,13 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B173" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C173" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D173">
         <v>6.3</v>
@@ -23482,13 +23471,13 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B174" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C174" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D174">
         <v>23.8</v>
@@ -23535,13 +23524,13 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B175" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C175" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D175">
         <v>28.9</v>
@@ -23588,13 +23577,13 @@
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B176" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C176" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D176">
         <v>17.100000000000001</v>
@@ -23641,13 +23630,13 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B177" t="s">
+        <v>223</v>
+      </c>
+      <c r="C177" t="s">
         <v>224</v>
-      </c>
-      <c r="C177" t="s">
-        <v>225</v>
       </c>
       <c r="D177">
         <v>8.6</v>
@@ -23694,13 +23683,13 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B178" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C178" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D178">
         <v>12.4</v>
@@ -23747,13 +23736,13 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B179" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C179" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D179">
         <v>6</v>
@@ -23800,13 +23789,13 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B180" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C180" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D180">
         <v>27.4</v>
@@ -23853,13 +23842,13 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B181" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C181" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D181">
         <v>2.7</v>
@@ -23906,13 +23895,13 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>227</v>
+      </c>
+      <c r="B182" t="s">
         <v>228</v>
       </c>
-      <c r="B182" t="s">
-        <v>229</v>
-      </c>
       <c r="C182" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D182">
         <v>41.9</v>
@@ -23959,13 +23948,13 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B183" t="s">
+        <v>229</v>
+      </c>
+      <c r="C183" t="s">
         <v>230</v>
-      </c>
-      <c r="C183" t="s">
-        <v>231</v>
       </c>
       <c r="D183">
         <v>35.700000000000003</v>
@@ -24012,13 +24001,13 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B184" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C184" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D184">
         <v>33.5</v>
@@ -24065,13 +24054,13 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B185" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C185" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D185">
         <v>13.3</v>
@@ -24118,13 +24107,13 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B186" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C186" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D186">
         <v>17.899999999999999</v>
@@ -24171,13 +24160,13 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B187" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C187" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D187">
         <v>3.2</v>
@@ -24224,13 +24213,13 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B188" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C188" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D188">
         <v>9.6</v>
@@ -24277,13 +24266,13 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B189" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C189" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D189">
         <v>5.2</v>
@@ -24330,13 +24319,13 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>237</v>
+      </c>
+      <c r="B190" t="s">
+        <v>237</v>
+      </c>
+      <c r="C190" t="s">
         <v>238</v>
-      </c>
-      <c r="B190" t="s">
-        <v>238</v>
-      </c>
-      <c r="C190" t="s">
-        <v>239</v>
       </c>
       <c r="D190">
         <v>42.6</v>
@@ -24383,13 +24372,13 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B191" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C191" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D191">
         <v>41</v>
@@ -24436,13 +24425,13 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B192" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C192" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D192">
         <v>59.4</v>
@@ -24489,13 +24478,13 @@
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B193" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C193" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D193">
         <v>68.8</v>
@@ -24542,13 +24531,13 @@
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B194" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C194" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D194">
         <v>52.6</v>
@@ -24595,13 +24584,13 @@
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B195" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C195" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D195">
         <v>33.6</v>
@@ -24648,13 +24637,13 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B196" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C196" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D196">
         <v>14.3</v>
@@ -24701,13 +24690,13 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B197" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C197" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D197">
         <v>34.4</v>
@@ -24754,13 +24743,13 @@
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>246</v>
+      </c>
+      <c r="B198" t="s">
+        <v>246</v>
+      </c>
+      <c r="C198" t="s">
         <v>247</v>
-      </c>
-      <c r="B198" t="s">
-        <v>247</v>
-      </c>
-      <c r="C198" t="s">
-        <v>248</v>
       </c>
       <c r="D198">
         <v>31.8</v>
@@ -24807,13 +24796,13 @@
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B199" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C199" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D199">
         <v>23.9</v>
@@ -24860,13 +24849,13 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B200" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C200" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D200">
         <v>24.7</v>
@@ -24913,13 +24902,13 @@
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B201" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C201" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D201">
         <v>56.6</v>
@@ -24966,13 +24955,13 @@
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>251</v>
+      </c>
+      <c r="B202" t="s">
         <v>252</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>253</v>
-      </c>
-      <c r="C202" t="s">
-        <v>254</v>
       </c>
       <c r="D202">
         <v>25.5</v>
@@ -25019,13 +25008,13 @@
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>251</v>
+      </c>
+      <c r="B203" t="s">
         <v>252</v>
       </c>
-      <c r="B203" t="s">
-        <v>253</v>
-      </c>
       <c r="C203" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D203">
         <v>10.1</v>
@@ -25072,13 +25061,13 @@
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>251</v>
+      </c>
+      <c r="B204" t="s">
         <v>252</v>
       </c>
-      <c r="B204" t="s">
-        <v>253</v>
-      </c>
       <c r="C204" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D204">
         <v>22</v>
@@ -25125,13 +25114,13 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B205" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C205" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D205">
         <v>25.3</v>
@@ -25178,13 +25167,13 @@
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B206" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C206" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D206">
         <v>22</v>
@@ -25231,13 +25220,13 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>258</v>
+      </c>
+      <c r="B207" t="s">
         <v>259</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>260</v>
-      </c>
-      <c r="C207" t="s">
-        <v>261</v>
       </c>
       <c r="D207">
         <v>77.900000000000006</v>
@@ -25284,13 +25273,13 @@
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>258</v>
+      </c>
+      <c r="B208" t="s">
         <v>259</v>
       </c>
-      <c r="B208" t="s">
-        <v>260</v>
-      </c>
       <c r="C208" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D208">
         <v>7.1</v>
@@ -25337,13 +25326,13 @@
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>258</v>
+      </c>
+      <c r="B209" t="s">
         <v>259</v>
       </c>
-      <c r="B209" t="s">
-        <v>260</v>
-      </c>
       <c r="C209" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D209">
         <v>12.1</v>
@@ -25390,13 +25379,13 @@
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B210" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C210" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D210">
         <v>3.2</v>
@@ -25443,13 +25432,13 @@
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B211" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C211" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D211">
         <v>18.600000000000001</v>
@@ -25496,13 +25485,13 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B212" t="s">
+        <v>264</v>
+      </c>
+      <c r="C212" t="s">
         <v>265</v>
-      </c>
-      <c r="C212" t="s">
-        <v>266</v>
       </c>
       <c r="D212">
         <v>13</v>
@@ -25549,13 +25538,13 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B213" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C213" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D213">
         <v>5.7</v>
@@ -25602,13 +25591,13 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B214" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C214" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D214">
         <v>1.3</v>
@@ -25655,13 +25644,13 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B215" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C215" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D215">
         <v>9.6</v>
@@ -25708,13 +25697,13 @@
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B216" t="s">
+        <v>268</v>
+      </c>
+      <c r="C216" t="s">
         <v>269</v>
-      </c>
-      <c r="C216" t="s">
-        <v>270</v>
       </c>
       <c r="D216">
         <v>6.7</v>
@@ -25761,13 +25750,13 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B217" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C217" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D217">
         <v>3.3</v>
@@ -25814,13 +25803,13 @@
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B218" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C218" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -25867,13 +25856,13 @@
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B219" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C219" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D219">
         <v>0.2</v>
@@ -25920,13 +25909,13 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B220" t="s">
+        <v>273</v>
+      </c>
+      <c r="C220" t="s">
         <v>274</v>
-      </c>
-      <c r="C220" t="s">
-        <v>275</v>
       </c>
       <c r="D220">
         <v>25.5</v>
@@ -25973,13 +25962,13 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>275</v>
+      </c>
+      <c r="B221" t="s">
+        <v>275</v>
+      </c>
+      <c r="C221" t="s">
         <v>276</v>
-      </c>
-      <c r="B221" t="s">
-        <v>276</v>
-      </c>
-      <c r="C221" t="s">
-        <v>277</v>
       </c>
       <c r="D221">
         <v>66.8</v>
@@ -26026,13 +26015,13 @@
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B222" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C222" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D222">
         <v>34.1</v>
@@ -26079,13 +26068,13 @@
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B223" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C223" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D223">
         <v>50.7</v>
@@ -26132,13 +26121,13 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B224" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C224" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D224">
         <v>3.3</v>
@@ -26185,13 +26174,13 @@
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B225" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C225" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D225">
         <v>1.1000000000000001</v>
@@ -26238,13 +26227,13 @@
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B226" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C226" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D226">
         <v>2.9</v>
@@ -26291,13 +26280,13 @@
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B227" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C227" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D227">
         <v>2.7</v>
@@ -26344,13 +26333,13 @@
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B228" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C228" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D228">
         <v>3.7</v>
@@ -26397,13 +26386,13 @@
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B229" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C229" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D229">
         <v>2</v>
@@ -26450,13 +26439,13 @@
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B230" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C230" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D230">
         <v>2.9</v>
@@ -26503,13 +26492,13 @@
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B231" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C231" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D231">
         <v>4.2</v>
@@ -26556,13 +26545,13 @@
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B232" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C232" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D232">
         <v>1.1000000000000001</v>
@@ -26609,13 +26598,13 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B233" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C233" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D233">
         <v>3.8</v>
@@ -26662,13 +26651,13 @@
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B234" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C234" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D234">
         <v>47.4</v>
@@ -26715,13 +26704,13 @@
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B235" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C235" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D235">
         <v>14</v>
@@ -26768,13 +26757,13 @@
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B236" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C236" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D236">
         <v>4.8</v>
@@ -26821,13 +26810,13 @@
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B237" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C237" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D237">
         <v>11</v>
@@ -26874,13 +26863,13 @@
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B238" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C238" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D238">
         <v>25.7</v>
@@ -26927,13 +26916,13 @@
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B239" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C239" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D239">
         <v>0.8</v>
@@ -26980,13 +26969,13 @@
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B240" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C240" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D240">
         <v>4.5999999999999996</v>
@@ -27033,13 +27022,13 @@
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B241" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C241" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D241">
         <v>0.5</v>
@@ -27086,13 +27075,13 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B242" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C242" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D242">
         <v>8</v>
@@ -27139,13 +27128,13 @@
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B243" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C243" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D243">
         <v>2</v>
@@ -27192,13 +27181,13 @@
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B244" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C244" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D244">
         <v>6</v>
@@ -27245,5 +27234,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>